--- a/data_result/resultOfPlant.xlsx
+++ b/data_result/resultOfPlant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mzx\大三课件\9161040G0826\北斗杯\BeiDou\data_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5BC63C-9632-4B4F-96BA-9084D6A3F431}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4819B-637E-4774-A234-3554116134C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" xr2:uid="{3305AEA2-3D1A-4E45-BC6F-FCDD4B00B0B7}"/>
   </bookViews>
@@ -393,907 +393,907 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-41.16986440101374</v>
+        <v>-16.190345102747308</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-41.114523164369039</v>
+        <v>-16.14096690918592</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-41.072171175348004</v>
+        <v>-16.073416109601332</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-41.022007787447535</v>
+        <v>-15.988861545011421</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-40.932811129563866</v>
+        <v>-15.88880459898725</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-40.767368459059334</v>
+        <v>-15.775131194543064</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-40.489301024733557</v>
+        <v>-15.65011939332015</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-40.071484756257412</v>
+        <v>-15.516391992370488</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-39.503178376362854</v>
+        <v>-15.376824661769691</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-38.792246890348792</v>
+        <v>-15.234423846125424</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-37.961287853365803</v>
+        <v>-15.092184699275082</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-37.040184772970164</v>
+        <v>-14.952932339667456</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-36.059003841606071</v>
+        <v>-14.819144297458539</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-35.043592089663875</v>
+        <v>-14.692749072219669</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-34.014000158197035</v>
+        <v>-14.574896093138126</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-32.984732632321126</v>
+        <v>-14.465697326237411</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-31.965784791046488</v>
+        <v>-14.363951284640743</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-30.963814811599114</v>
+        <v>-14.266880012639529</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-29.983159074484036</v>
+        <v>-14.169940584413903</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-29.02660893133719</v>
+        <v>-14.066811197009685</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-28.095966734129757</v>
+        <v>-13.949687651818781</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-27.192427525098086</v>
+        <v>-13.810028010707349</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-26.316831652332432</v>
+        <v>-13.639813651602836</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-25.469828873366005</v>
+        <v>-13.433226861485723</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-24.65198153789888</v>
+        <v>-13.188414907549515</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-23.863827144605917</v>
+        <v>-12.908842253749917</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-23.105914017777636</v>
+        <v>-12.603780349383696</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-22.378819040871942</v>
+        <v>-12.287784233044739</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-21.683153550448615</v>
+        <v>-11.979401741401254</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-21.019560097229011</v>
+        <v>-11.699612842506372</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-20.388703159146605</v>
+        <v>-11.470492619546544</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-19.791253347612859</v>
+        <v>-11.314400516384381</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-19.227865589340272</v>
+        <v>-11.25378721075764</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-18.699150231304337</v>
+        <v>-11.311583110385508</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-18.205634333103934</v>
+        <v>-11.512115682668407</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-17.747711897663812</v>
+        <v>-11.882579595990656</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-17.32557852370007</v>
+        <v>-12.455233404536612</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-16.939146415573646</v>
+        <v>-13.270756688498356</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-16.587935342960893</v>
+        <v>-14.383673250763234</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-16.270934437685739</v>
+        <v>-15.871658827174892</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-15.986431249939457</v>
+        <v>-17.85218320332396</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>-15.731808001720982</v>
+        <v>-20.510300707190797</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-15.503313136871419</v>
+        <v>-24.105391643849327</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-15.295829302280023</v>
+        <v>-28.402212907952471</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-15.102681679761991</v>
+        <v>-29.441626719262082</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>-14.915559555190645</v>
+        <v>-26.702579016730144</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-14.72465490780932</v>
+        <v>-24.628743706259947</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-14.519134106555303</v>
+        <v>-23.783119198583655</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-14.28802985967242</v>
+        <v>-24.104911810223655</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-14.021533745559447</v>
+        <v>-25.779788593699472</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-13.712502387216814</v>
+        <v>-29.679874497593104</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-13.357813133867928</v>
+        <v>-41.422887088163598</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-12.959153466218382</v>
+        <v>-34.56262394013315</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-12.52297024327461</v>
+        <v>-26.904277169884516</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-12.05960330175758</v>
+        <v>-23.497510297785436</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>-11.581914041215562</v>
+        <v>-21.966565635115813</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-11.103829496373407</v>
+        <v>-21.874147063379755</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-10.639145742653612</v>
+        <v>-23.217717468360888</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-10.200751697963417</v>
+        <v>-24.96440372545873</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>-9.8002754479432923</v>
+        <v>-21.920541933029174</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>-9.4480603761560431</v>
+        <v>-16.708551545268332</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-9.1533597809353751</v>
+        <v>-12.572279660124943</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>-8.9246585712472619</v>
+        <v>-9.4454003293099138</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-8.7700630165644515</v>
+        <v>-7.0619051843506107</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-8.6977340710927606</v>
+        <v>-5.2528095285123744</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-8.7163673489277915</v>
+        <v>-3.9127458265485449</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>-8.8357462473913468</v>
+        <v>-2.9669287809727325</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-9.0674206063683407</v>
+        <v>-2.3466411528480915</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-9.4255920433329958</v>
+        <v>-1.9655139267281672</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-9.9283322587612624</v>
+        <v>-1.695727358933472</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-10.599318226847213</v>
+        <v>-1.3626316941255812</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>-11.470314770044538</v>
+        <v>-0.79846001519819032</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-12.58450609333943</v>
+        <v>4.9712694392856742E-2</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-13.999578836731089</v>
+        <v>1.0769309462501953</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>-15.782612524174498</v>
+        <v>2.1042597285869515</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-17.952577198912856</v>
+        <v>2.9751251046809735</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>-20.170572059769878</v>
+        <v>3.5826988816325178</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-21.014755118517748</v>
+        <v>3.8537557904971917</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>-19.44626982845978</v>
+        <v>3.7240391770973487</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-16.98502083364918</v>
+        <v>3.1142100662707777</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-14.737687675882921</v>
+        <v>1.8999559475875771</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>-12.892380750004101</v>
+        <v>-0.14007503475285643</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>-11.406672609566954</v>
+        <v>-3.4065128540695278</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-10.216566952095638</v>
+        <v>-7.9050855527515811</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-9.2710886883721741</v>
+        <v>-7.2768896607880116</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>-8.5336008659461964</v>
+        <v>-2.5839631648580075</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-7.9784921457166931</v>
+        <v>0.71457072063470717</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>-7.5882066364077074</v>
+        <v>2.817446354862192</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>-7.3511862969918944</v>
+        <v>4.0843867045592459</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-7.2605660602919126</v>
+        <v>4.6956648364567135</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>-7.3134239954126867</v>
+        <v>4.7277758311465634</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>-7.508612552071976</v>
+        <v>4.1913472424609619</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>-7.849472287085276</v>
+        <v>3.0340106401578613</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>-8.3471692247588525</v>
+        <v>1.1196611056610632</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-9.014707617189492</v>
+        <v>-1.7905423739538251</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-9.8709002529617091</v>
+        <v>-5.7306022582676928</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-10.941671641667989</v>
+        <v>-7.325784975296906</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>-12.260589085930189</v>
+        <v>-3.9843881906115048</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-13.864284698633716</v>
+        <v>-0.88150876857290705</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>-15.765026122507217</v>
+        <v>1.1345951878570333</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>-17.835806910523896</v>
+        <v>2.3329301960127906</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>-19.486928989161544</v>
+        <v>2.9200161191359495</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>-19.636274743570013</v>
+        <v>3.0255606850497996</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>-18.253708343527688</v>
+        <v>2.7448516385225186</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>-16.416098223784779</v>
+        <v>2.173099099376103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>-14.733638014184185</v>
+        <v>1.4359526592186886</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>-13.340159550116852</v>
+        <v>0.70671072106576771</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>-12.222964863963563</v>
+        <v>0.1728263124998014</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>-11.342807178100394</v>
+        <v>-6.740402768736134E-2</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>-10.662690560343815</v>
+        <v>-8.0016143268990703E-2</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>-10.152661685118007</v>
+        <v>-3.5677102658490743E-2</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>-9.7891679177232138</v>
+        <v>-9.9674247502526417E-2</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>-9.5535255132952379</v>
+        <v>-0.38504509404848902</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>-9.4305130906833909</v>
+        <v>-0.96112194986663146</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>-9.4072413176029208</v>
+        <v>-1.8756692691042811</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>-9.4722547062056144</v>
+        <v>-3.1737037096502996</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>-9.6148006487432376</v>
+        <v>-4.9130541415164606</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>-9.8242162346490698</v>
+        <v>-7.1819092030346612</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>-10.089412471036969</v>
+        <v>-10.125881081422696</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>-10.398473296267191</v>
+        <v>-13.987596729646478</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>-10.738419239416581</v>
+        <v>-19.013986203509546</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>-11.095228571314738</v>
+        <v>-23.363562603506793</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>-11.454219159462173</v>
+        <v>-22.22224814198259</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>-11.800870166070112</v>
+        <v>-20.329828851877672</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>-12.122053771408957</v>
+        <v>-19.776291218051533</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>-12.407480868446928</v>
+        <v>-20.47309244184445</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>-12.65099359066123</v>
+        <v>-22.44726980338962</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>-12.851286025867294</v>
+        <v>-26.198227253422385</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>-13.0117883385185</v>
+        <v>-34.139298398014233</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>-13.139742677751933</v>
+        <v>-41.243084141790725</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>-13.244785740865179</v>
+        <v>-29.719004975088144</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>-13.337453943177238</v>
+        <v>-26.024889881823018</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>-13.427948733771002</v>
+        <v>-24.555623428376059</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>-13.525315287890907</v>
+        <v>-24.458935881856757</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>-13.637030186948733</v>
+        <v>-25.592314818875582</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>-13.768901407896635</v>
+        <v>-28.126517056646083</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>-13.92516528576234</v>
+        <v>-31.489160537768306</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>-14.108679970375382</v>
+        <v>-29.654186063833482</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>-14.32115114905322</v>
+        <v>-24.857365995155035</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>-14.56334767169607</v>
+        <v>-21.23477930072103</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>-14.835290350239505</v>
+        <v>-18.623623506709464</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>-15.136408160653435</v>
+        <v>-16.691411587157766</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>-15.465661273954655</v>
+        <v>-15.238318394672788</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>-15.821636277951306</v>
+        <v>-14.142764517831239</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>-16.202618474631446</v>
+        <v>-13.325241992637205</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>-16.606645317794165</v>
+        <v>-12.729959520401938</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>-17.031547015057516</v>
+        <v>-12.315265127414643</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>-17.474976440730043</v>
+        <v>-12.048367333127894</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>-17.934432656934302</v>
+        <v>-11.902298776425814</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>-18.407280001410506</v>
+        <v>-11.85414090378819</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>-18.890764938622006</v>
+        <v>-11.884013846832861</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>-19.382032050728856</v>
+        <v>-11.974556801822672</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>-19.878140185042362</v>
+        <v>-12.110723926599869</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>-20.376080397539845</v>
+        <v>-12.279762730821846</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>-20.872795191281838</v>
+        <v>-12.471257748174366</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>-21.365200553497118</v>
+        <v>-12.67714260673015</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>-21.850210107507575</v>
+        <v>-12.891608708891187</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>-22.324762427650558</v>
+        <v>-13.11088071283214</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>-22.785851209308564</v>
+        <v>-13.332870428013779</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>-23.230559128802504</v>
+        <v>-13.556754996555785</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>-23.656094695908578</v>
+        <v>-13.782537918301943</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>-24.059833889882043</v>
+        <v>-14.010649931338843</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>-24.439364933740464</v>
+        <v>-14.241625209282798</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>-24.792536346915913</v>
+        <v>-14.47586976854209</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>-25.117507804292224</v>
+        <v>-14.713519983547574</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>-25.41280013246741</v>
+        <v>-14.954376103241287</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>-25.677342740683397</v>
+        <v>-15.197891921455929</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>-25.910515827458276</v>
+        <v>-15.443201514357503</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>-26.112182367393096</v>
+        <v>-15.689165512331867</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>-26.28270825207823</v>
+        <v>-15.93442262782702</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>-26.42296930233972</v>
+        <v>-16.177437601145407</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>-26.53434492836147</v>
+        <v>-16.416536970415379</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>-26.618699791847181</v>
+        <v>-16.649927411580606</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>-26.678357540835552</v>
+        <v>-16.875694298143866</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>-26.71606771791204</v>
+        <v>-17.091779837375149</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>-26.734966384728036</v>
+        <v>-17.295941950098683</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>-26.738523451330877</v>
+        <v>-17.485705080463138</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>-26.730460290587679</v>
+        <v>-17.658319748825384</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>-26.71460827591995</v>
+        <v>-17.810762864292276</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>-26.69467344699212</v>
+        <v>-17.939820451656356</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>-26.673890728083578</v>
+        <v>-18.042288529513019</v>
       </c>
     </row>
   </sheetData>
